--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnfsf13-Sdc2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H2">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J2">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N2">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O2">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P2">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q2">
-        <v>0.3491694892694445</v>
+        <v>1.304096939591667</v>
       </c>
       <c r="R2">
-        <v>3.142525403425</v>
+        <v>11.736872456325</v>
       </c>
       <c r="S2">
-        <v>0.0004586375569809242</v>
+        <v>0.002269411639126452</v>
       </c>
       <c r="T2">
-        <v>0.0004586375569809241</v>
+        <v>0.002269411639126452</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H3">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J3">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>257.478072</v>
       </c>
       <c r="O3">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P3">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q3">
-        <v>45.09096179369867</v>
+        <v>115.2564828464667</v>
       </c>
       <c r="R3">
-        <v>405.818656143288</v>
+        <v>1037.3083456182</v>
       </c>
       <c r="S3">
-        <v>0.05922742162338143</v>
+        <v>0.2005712886178919</v>
       </c>
       <c r="T3">
-        <v>0.05922742162338143</v>
+        <v>0.2005712886178918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5253763333333333</v>
+        <v>1.342908333333333</v>
       </c>
       <c r="H4">
-        <v>1.576129</v>
+        <v>4.028725</v>
       </c>
       <c r="I4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="J4">
-        <v>0.08315346361753381</v>
+        <v>0.2879023314891748</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N4">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O4">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P4">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q4">
-        <v>17.86128680275489</v>
+        <v>48.67930665014722</v>
       </c>
       <c r="R4">
-        <v>160.751581224794</v>
+        <v>438.113759851325</v>
       </c>
       <c r="S4">
-        <v>0.02346097581690391</v>
+        <v>0.08471255605510489</v>
       </c>
       <c r="T4">
-        <v>0.0234609758169039</v>
+        <v>0.08471255605510487</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.342908333333333</v>
+      </c>
+      <c r="H5">
+        <v>4.028725</v>
+      </c>
+      <c r="I5">
+        <v>0.2879023314891748</v>
+      </c>
+      <c r="J5">
+        <v>0.2879023314891748</v>
+      </c>
+      <c r="K5">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="L5">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G5">
-        <v>0.5253763333333333</v>
-      </c>
-      <c r="H5">
-        <v>1.576129</v>
-      </c>
-      <c r="I5">
-        <v>0.08315346361753381</v>
-      </c>
-      <c r="J5">
-        <v>0.08315346361753381</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M5">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N5">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O5">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P5">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q5">
-        <v>0.00489423079588889</v>
+        <v>0.2005929035666666</v>
       </c>
       <c r="R5">
-        <v>0.04404807716300001</v>
+        <v>1.8053361321</v>
       </c>
       <c r="S5">
-        <v>6.428620267549002E-06</v>
+        <v>0.0003490751770515635</v>
       </c>
       <c r="T5">
-        <v>6.428620267549002E-06</v>
+        <v>0.0003490751770515635</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H6">
         <v>1.488965</v>
       </c>
       <c r="I6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J6">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N6">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O6">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P6">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q6">
-        <v>0.3298595156805556</v>
+        <v>0.4819774741783333</v>
       </c>
       <c r="R6">
-        <v>2.968735641125</v>
+        <v>4.337797267605</v>
       </c>
       <c r="S6">
-        <v>0.0004332737168278115</v>
+        <v>0.0008387453850168271</v>
       </c>
       <c r="T6">
-        <v>0.0004332737168278115</v>
+        <v>0.0008387453850168271</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H7">
         <v>1.488965</v>
       </c>
       <c r="I7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J7">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>257.478072</v>
       </c>
       <c r="O7">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P7">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q7">
-        <v>42.59731527505334</v>
+        <v>42.59731527505333</v>
       </c>
       <c r="R7">
         <v>383.37583747548</v>
       </c>
       <c r="S7">
-        <v>0.05595199240510018</v>
+        <v>0.07412857138596936</v>
       </c>
       <c r="T7">
-        <v>0.05595199240510017</v>
+        <v>0.07412857138596934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H8">
         <v>1.488965</v>
       </c>
       <c r="I8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J8">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N8">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O8">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P8">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q8">
-        <v>16.87351156172111</v>
+        <v>17.99124631895611</v>
       </c>
       <c r="R8">
-        <v>151.86160405549</v>
+        <v>161.921216870605</v>
       </c>
       <c r="S8">
-        <v>0.02216352332659086</v>
+        <v>0.03130867235331011</v>
       </c>
       <c r="T8">
-        <v>0.02216352332659086</v>
+        <v>0.0313086723533101</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4963216666666667</v>
+        <v>0.4963216666666666</v>
       </c>
       <c r="H9">
         <v>1.488965</v>
       </c>
       <c r="I9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="J9">
-        <v>0.07855486254950023</v>
+        <v>0.1064050028249084</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N9">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O9">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P9">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q9">
-        <v>0.004623567206111112</v>
+        <v>0.07413655999333331</v>
       </c>
       <c r="R9">
-        <v>0.04161210485500001</v>
+        <v>0.6672290399399999</v>
       </c>
       <c r="S9">
-        <v>6.073100981373416E-06</v>
+        <v>0.0001290137006121245</v>
       </c>
       <c r="T9">
-        <v>6.073100981373415E-06</v>
+        <v>0.0001290137006121245</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H10">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J10">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N10">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O10">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P10">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q10">
-        <v>0.1492821084722222</v>
+        <v>0.1458564802026667</v>
       </c>
       <c r="R10">
-        <v>1.34353897625</v>
+        <v>1.312708321824</v>
       </c>
       <c r="S10">
-        <v>0.0001960835171306382</v>
+        <v>0.0002538219236352112</v>
       </c>
       <c r="T10">
-        <v>0.0001960835171306382</v>
+        <v>0.0002538219236352112</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H11">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J11">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>257.478072</v>
       </c>
       <c r="O11">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P11">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q11">
-        <v>19.27795542413334</v>
+        <v>12.89083993540267</v>
       </c>
       <c r="R11">
-        <v>173.5015988172</v>
+        <v>116.017559418624</v>
       </c>
       <c r="S11">
-        <v>0.02532178397892277</v>
+        <v>0.02243285855473211</v>
       </c>
       <c r="T11">
-        <v>0.02532178397892277</v>
+        <v>0.02243285855473211</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.2246166666666667</v>
+        <v>0.1501973333333333</v>
       </c>
       <c r="H12">
-        <v>0.6738499999999999</v>
+        <v>0.450592</v>
       </c>
       <c r="I12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="J12">
-        <v>0.03555099960642508</v>
+        <v>0.03220038283833477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N12">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O12">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P12">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q12">
-        <v>7.636321717344445</v>
+        <v>5.444528018691556</v>
       </c>
       <c r="R12">
-        <v>68.7268954561</v>
+        <v>49.000752168224</v>
       </c>
       <c r="S12">
-        <v>0.01003038365147821</v>
+        <v>0.00947466011156925</v>
       </c>
       <c r="T12">
-        <v>0.01003038365147821</v>
+        <v>0.009474660111569248</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.1501973333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.450592</v>
+      </c>
+      <c r="I13">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="J13">
+        <v>0.03220038283833477</v>
+      </c>
+      <c r="K13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="L13">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G13">
-        <v>0.2246166666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.6738499999999999</v>
-      </c>
-      <c r="I13">
-        <v>0.03555099960642508</v>
-      </c>
-      <c r="J13">
-        <v>0.03555099960642508</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M13">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N13">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O13">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P13">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q13">
-        <v>0.002092453994444445</v>
+        <v>0.02243527607466666</v>
       </c>
       <c r="R13">
-        <v>0.01883208595</v>
+        <v>0.201917484672</v>
       </c>
       <c r="S13">
-        <v>2.748458893458527E-06</v>
+        <v>3.904224839819499E-05</v>
       </c>
       <c r="T13">
-        <v>2.748458893458526E-06</v>
+        <v>3.904224839819499E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,46 +1281,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H14">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J14">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6646083333333334</v>
+        <v>0.971099</v>
       </c>
       <c r="N14">
-        <v>1.993825</v>
+        <v>2.913297</v>
       </c>
       <c r="O14">
-        <v>0.005515555660921567</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="P14">
-        <v>0.005515555660921566</v>
+        <v>0.007882574716876797</v>
       </c>
       <c r="Q14">
-        <v>3.370786243188889</v>
+        <v>2.597719605369333</v>
       </c>
       <c r="R14">
-        <v>30.3370761887</v>
+        <v>23.379476448324</v>
       </c>
       <c r="S14">
-        <v>0.004427560869982193</v>
+        <v>0.004520595769098307</v>
       </c>
       <c r="T14">
-        <v>0.004427560869982193</v>
+        <v>0.004520595769098307</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H15">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J15">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>257.478072</v>
       </c>
       <c r="O15">
-        <v>0.7122664414292983</v>
+        <v>0.6966643430097871</v>
       </c>
       <c r="P15">
-        <v>0.7122664414292982</v>
+        <v>0.696664343009787</v>
       </c>
       <c r="Q15">
-        <v>435.2957471294614</v>
+        <v>229.5872461980694</v>
       </c>
       <c r="R15">
-        <v>3917.661724165152</v>
+        <v>2066.285215782624</v>
       </c>
       <c r="S15">
-        <v>0.5717652434218939</v>
+        <v>0.3995316244511937</v>
       </c>
       <c r="T15">
-        <v>0.5717652434218938</v>
+        <v>0.3995316244511937</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H16">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J16">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>33.99712866666667</v>
+        <v>36.24916566666667</v>
       </c>
       <c r="N16">
-        <v>101.991386</v>
+        <v>108.747497</v>
       </c>
       <c r="O16">
-        <v>0.2821406925971621</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="P16">
-        <v>0.282140692597162</v>
+        <v>0.294240604502677</v>
       </c>
       <c r="Q16">
-        <v>172.4279517272418</v>
+        <v>96.96762979941379</v>
       </c>
       <c r="R16">
-        <v>1551.851565545176</v>
+        <v>872.7086681947242</v>
       </c>
       <c r="S16">
-        <v>0.2264858098021891</v>
+        <v>0.1687447159826928</v>
       </c>
       <c r="T16">
-        <v>0.2264858098021891</v>
+        <v>0.1687447159826928</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.071838666666667</v>
+        <v>2.675030666666667</v>
       </c>
       <c r="H17">
-        <v>15.215516</v>
+        <v>8.025092000000001</v>
       </c>
       <c r="I17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="J17">
-        <v>0.8027406742265409</v>
+        <v>0.573492282847582</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.009315666666666668</v>
+        <v>0.149372</v>
       </c>
       <c r="N17">
-        <v>0.027947</v>
+        <v>0.448116</v>
       </c>
       <c r="O17">
-        <v>7.73103126180959E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="P17">
-        <v>7.731031261809588E-05</v>
+        <v>0.001212477770659141</v>
       </c>
       <c r="Q17">
-        <v>0.04724755840577779</v>
+        <v>0.3995746807413333</v>
       </c>
       <c r="R17">
-        <v>0.4252280256520001</v>
+        <v>3.596172126672</v>
       </c>
       <c r="S17">
-        <v>6.206013247571495E-05</v>
+        <v>0.0006953466445972576</v>
       </c>
       <c r="T17">
-        <v>6.206013247571494E-05</v>
+        <v>0.0006953466445972576</v>
       </c>
     </row>
   </sheetData>
